--- a/driving-workflows/src/test/resources/testdata/TestData.xlsx
+++ b/driving-workflows/src/test/resources/testdata/TestData.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10B745A-E4CC-EF41-A21F-00AC9E98F676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E282DA6E-F042-B14D-B741-7EE741C6466B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Drive" sheetId="7" r:id="rId1"/>
+    <sheet name="camp" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -357,7 +358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACDC525-71EF-9A42-860A-D39335E36C9D}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -389,4 +390,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE2114D-43EF-A442-9A05-EC824C10604B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/driving-workflows/src/test/resources/testdata/TestData.xlsx
+++ b/driving-workflows/src/test/resources/testdata/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E282DA6E-F042-B14D-B741-7EE741C6466B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B13631-B461-1A44-A8D9-25630EACBA57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Drive" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>https://sarathi.parivahan.gov.in/sarathiservice/stateSelection.do</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>https://sarathi.parivahan.gov.in/sarathiservicecov8/applViewStatus.do</t>
+  </si>
+  <si>
+    <t>Application No</t>
+  </si>
+  <si>
+    <t>DOB</t>
   </si>
 </sst>
 </file>
@@ -74,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,12 +401,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE2114D-43EF-A442-9A05-EC824C10604B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3174358420</v>
+      </c>
+      <c r="B2" s="1">
+        <v>36570</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>